--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H2">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I2">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J2">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N2">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q2">
-        <v>0.7522909804404443</v>
+        <v>0.1888419615724444</v>
       </c>
       <c r="R2">
-        <v>6.770618823963999</v>
+        <v>1.699577654152</v>
       </c>
       <c r="S2">
-        <v>0.01072822134110176</v>
+        <v>0.00329059939327642</v>
       </c>
       <c r="T2">
-        <v>0.01072822134110176</v>
+        <v>0.00329059939327642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H3">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I3">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J3">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.610326</v>
       </c>
       <c r="O3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q3">
-        <v>2.286793784509555</v>
+        <v>2.074772955521777</v>
       </c>
       <c r="R3">
-        <v>20.581144060586</v>
+        <v>18.67295659969599</v>
       </c>
       <c r="S3">
-        <v>0.03261135720025619</v>
+        <v>0.0361532287198107</v>
       </c>
       <c r="T3">
-        <v>0.03261135720025619</v>
+        <v>0.0361532287198107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H4">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I4">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J4">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N4">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q4">
-        <v>0.006034279085333332</v>
+        <v>0.03027121057333333</v>
       </c>
       <c r="R4">
-        <v>0.054308511768</v>
+        <v>0.27244089516</v>
       </c>
       <c r="S4">
-        <v>8.605324714053519E-05</v>
+        <v>0.0005274803667411621</v>
       </c>
       <c r="T4">
-        <v>8.605324714053519E-05</v>
+        <v>0.0005274803667411622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>168.042642</v>
       </c>
       <c r="I5">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J5">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N5">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q5">
-        <v>16.03358330097867</v>
+        <v>4.436083020539334</v>
       </c>
       <c r="R5">
-        <v>144.302249708808</v>
+        <v>39.924747184854</v>
       </c>
       <c r="S5">
-        <v>0.2286506618000182</v>
+        <v>0.07729940938105884</v>
       </c>
       <c r="T5">
-        <v>0.2286506618000182</v>
+        <v>0.07729940938105884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>168.042642</v>
       </c>
       <c r="I6">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J6">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>2.610326</v>
       </c>
       <c r="O6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q6">
         <v>48.73845305792133</v>
@@ -824,10 +824,10 @@
         <v>438.6460775212919</v>
       </c>
       <c r="S6">
-        <v>0.6950461002764501</v>
+        <v>0.8492748260301354</v>
       </c>
       <c r="T6">
-        <v>0.6950461002764501</v>
+        <v>0.8492748260301354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>168.042642</v>
       </c>
       <c r="I7">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J7">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N7">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q7">
-        <v>0.128608635344</v>
+        <v>0.7111004467300001</v>
       </c>
       <c r="R7">
-        <v>1.157477718096</v>
+        <v>6.39990402057</v>
       </c>
       <c r="S7">
-        <v>0.001834053500867014</v>
+        <v>0.01239103152225343</v>
       </c>
       <c r="T7">
-        <v>0.001834053500867014</v>
+        <v>0.01239103152225343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.003554</v>
+        <v>0.036048</v>
       </c>
       <c r="H8">
-        <v>0.010662</v>
+        <v>0.108144</v>
       </c>
       <c r="I8">
-        <v>5.872324689875768E-05</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J8">
-        <v>5.872324689875769E-05</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N8">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q8">
-        <v>0.001017301698666666</v>
+        <v>0.002854845392</v>
       </c>
       <c r="R8">
-        <v>0.009155715287999999</v>
+        <v>0.025693608528</v>
       </c>
       <c r="S8">
-        <v>1.450746862282607E-05</v>
+        <v>4.97461074678011E-05</v>
       </c>
       <c r="T8">
-        <v>1.450746862282607E-05</v>
+        <v>4.97461074678011E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.003554</v>
+        <v>0.036048</v>
       </c>
       <c r="H9">
-        <v>0.010662</v>
+        <v>0.108144</v>
       </c>
       <c r="I9">
-        <v>5.872324689875768E-05</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J9">
-        <v>5.872324689875769E-05</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>2.610326</v>
       </c>
       <c r="O9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q9">
-        <v>0.003092366201333333</v>
+        <v>0.03136567721599999</v>
       </c>
       <c r="R9">
-        <v>0.027831295812</v>
+        <v>0.282291094944</v>
       </c>
       <c r="S9">
-        <v>4.409941091706657E-05</v>
+        <v>0.0005465516115022933</v>
       </c>
       <c r="T9">
-        <v>4.409941091706657E-05</v>
+        <v>0.0005465516115022933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.003554</v>
+        <v>0.036048</v>
       </c>
       <c r="H10">
-        <v>0.010662</v>
+        <v>0.108144</v>
       </c>
       <c r="I10">
-        <v>5.872324689875768E-05</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J10">
-        <v>5.872324689875769E-05</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N10">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q10">
-        <v>8.159983999999999E-06</v>
+        <v>0.0004576293599999999</v>
       </c>
       <c r="R10">
-        <v>7.343985599999999E-05</v>
+        <v>0.00411866424</v>
       </c>
       <c r="S10">
-        <v>1.163673588650439E-07</v>
+        <v>7.9742599675538E-06</v>
       </c>
       <c r="T10">
-        <v>1.163673588650439E-07</v>
+        <v>7.974259967553801E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.813827666666667</v>
+        <v>1.188166</v>
       </c>
       <c r="H11">
-        <v>5.441483</v>
+        <v>3.564498</v>
       </c>
       <c r="I11">
-        <v>0.02997013221763203</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="J11">
-        <v>0.02997013221763203</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N11">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O11">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P11">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q11">
-        <v>0.5191924497435555</v>
+        <v>0.09409759848066666</v>
       </c>
       <c r="R11">
-        <v>4.672732047692</v>
+        <v>0.846878386326</v>
       </c>
       <c r="S11">
-        <v>0.007404065267692877</v>
+        <v>0.001639664711650781</v>
       </c>
       <c r="T11">
-        <v>0.007404065267692878</v>
+        <v>0.001639664711650781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.813827666666667</v>
+        <v>1.188166</v>
       </c>
       <c r="H12">
-        <v>5.441483</v>
+        <v>3.564498</v>
       </c>
       <c r="I12">
-        <v>0.02997013221763203</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="J12">
-        <v>0.02997013221763203</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>2.610326</v>
       </c>
       <c r="O12">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P12">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q12">
-        <v>1.578227172606444</v>
+        <v>1.033833534038667</v>
       </c>
       <c r="R12">
-        <v>14.204044553458</v>
+        <v>9.304501806347998</v>
       </c>
       <c r="S12">
-        <v>0.02250667743530596</v>
+        <v>0.01801470378473796</v>
       </c>
       <c r="T12">
-        <v>0.02250667743530596</v>
+        <v>0.01801470378473796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.813827666666667</v>
+        <v>1.188166</v>
       </c>
       <c r="H13">
-        <v>5.441483</v>
+        <v>3.564498</v>
       </c>
       <c r="I13">
-        <v>0.02997013221763203</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="J13">
-        <v>0.02997013221763203</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N13">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O13">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P13">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q13">
-        <v>0.004164548322666667</v>
+        <v>0.01508376737</v>
       </c>
       <c r="R13">
-        <v>0.037480934904</v>
+        <v>0.13575390633</v>
       </c>
       <c r="S13">
-        <v>5.938951463318661E-05</v>
+        <v>0.0002628368999281106</v>
       </c>
       <c r="T13">
-        <v>5.938951463318662E-05</v>
+        <v>0.0002628368999281106</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06141066666666666</v>
+        <v>0.03233</v>
       </c>
       <c r="H14">
-        <v>0.184232</v>
+        <v>0.09698999999999999</v>
       </c>
       <c r="I14">
-        <v>0.001014697169635334</v>
+        <v>0.0005419472114695452</v>
       </c>
       <c r="J14">
-        <v>0.001014697169635334</v>
+        <v>0.0005419472114695452</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N14">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O14">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P14">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q14">
-        <v>0.01757827110755555</v>
+        <v>0.002560395903333333</v>
       </c>
       <c r="R14">
-        <v>0.158204439968</v>
+        <v>0.02304356313</v>
       </c>
       <c r="S14">
-        <v>0.0002506790432677257</v>
+        <v>4.461528113720621E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002506790432677257</v>
+        <v>4.461528113720621E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06141066666666666</v>
+        <v>0.03233</v>
       </c>
       <c r="H15">
-        <v>0.184232</v>
+        <v>0.09698999999999999</v>
       </c>
       <c r="I15">
-        <v>0.001014697169635334</v>
+        <v>0.0005419472114695452</v>
       </c>
       <c r="J15">
-        <v>0.001014697169635334</v>
+        <v>0.0005419472114695452</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.610326</v>
       </c>
       <c r="O15">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P15">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q15">
-        <v>0.05343395329244443</v>
+        <v>0.02813061319333333</v>
       </c>
       <c r="R15">
-        <v>0.4809055796319999</v>
+        <v>0.2531755187399999</v>
       </c>
       <c r="S15">
-        <v>0.0007620073787350411</v>
+        <v>0.0004901801375906886</v>
       </c>
       <c r="T15">
-        <v>0.0007620073787350411</v>
+        <v>0.0004901801375906885</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06141066666666666</v>
+        <v>0.03233</v>
       </c>
       <c r="H16">
-        <v>0.184232</v>
+        <v>0.09698999999999999</v>
       </c>
       <c r="I16">
-        <v>0.001014697169635334</v>
+        <v>0.0005419472114695452</v>
       </c>
       <c r="J16">
-        <v>0.001014697169635334</v>
+        <v>0.0005419472114695452</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N16">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O16">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P16">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q16">
-        <v>0.0001409988906666666</v>
+        <v>0.00041042935</v>
       </c>
       <c r="R16">
-        <v>0.001268990016</v>
+        <v>0.00369386415</v>
       </c>
       <c r="S16">
-        <v>2.01074763256657E-06</v>
+        <v>7.15179274165042E-06</v>
       </c>
       <c r="T16">
-        <v>2.01074763256657E-06</v>
+        <v>7.15179274165042E-06</v>
       </c>
     </row>
   </sheetData>
